--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Date client record was created</t>
+    <t>NG-Imm Date client record was created</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-30T08:07:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-30T08:07:26+01:00</t>
+    <t>2025-07-03T11:54:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,7 +334,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">date
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T11:54:34+01:00</t>
+    <t>2025-07-03T13:36:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T13:36:09+01:00</t>
+    <t>2025-07-04T07:50:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-date-client-created.xlsx
+++ b/StructureDefinition-date-client-created.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-04T07:50:29+01:00</t>
+    <t>2025-07-04T16:58:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
